--- a/datasets/xlsx/rodadas(tratado).xlsx
+++ b/datasets/xlsx/rodadas(tratado).xlsx
@@ -42754,7 +42754,7 @@
         <v>77</v>
       </c>
       <c r="K1148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1149">
@@ -42795,7 +42795,7 @@
         <v>76</v>
       </c>
       <c r="K1149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1150">
@@ -43287,7 +43287,7 @@
         <v>76</v>
       </c>
       <c r="K1161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1162">
@@ -43533,7 +43533,7 @@
         <v>77</v>
       </c>
       <c r="K1167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1168">
@@ -44107,7 +44107,7 @@
         <v>76</v>
       </c>
       <c r="K1181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1182">
@@ -44230,7 +44230,7 @@
         <v>77</v>
       </c>
       <c r="K1184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1185">
@@ -44722,7 +44722,7 @@
         <v>76</v>
       </c>
       <c r="K1196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1197">
@@ -44968,7 +44968,7 @@
         <v>77</v>
       </c>
       <c r="K1202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1203">
@@ -45460,7 +45460,7 @@
         <v>76</v>
       </c>
       <c r="K1214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1215">
@@ -45706,7 +45706,7 @@
         <v>77</v>
       </c>
       <c r="K1220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1221">
@@ -46322,7 +46322,7 @@
         <v>76</v>
       </c>
       <c r="K1236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1237">
@@ -46355,7 +46355,7 @@
         <v>77</v>
       </c>
       <c r="K1237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1238">
@@ -46751,7 +46751,7 @@
         <v>76</v>
       </c>
       <c r="K1249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1250">
@@ -46784,7 +46784,7 @@
         <v>77</v>
       </c>
       <c r="K1250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1251">
@@ -47345,7 +47345,7 @@
         <v>76</v>
       </c>
       <c r="K1267" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1268">
@@ -47576,7 +47576,7 @@
         <v>77</v>
       </c>
       <c r="K1274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1275">
@@ -47774,7 +47774,7 @@
         <v>76</v>
       </c>
       <c r="K1280" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1281">
@@ -47807,7 +47807,7 @@
         <v>77</v>
       </c>
       <c r="K1281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1282">
@@ -48632,7 +48632,7 @@
         <v>76</v>
       </c>
       <c r="K1306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1307">
@@ -48665,7 +48665,7 @@
         <v>77</v>
       </c>
       <c r="K1307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1308">
@@ -49226,7 +49226,7 @@
         <v>76</v>
       </c>
       <c r="K1324" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1325">
@@ -49259,7 +49259,7 @@
         <v>77</v>
       </c>
       <c r="K1325" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1326">
@@ -49919,7 +49919,7 @@
         <v>77</v>
       </c>
       <c r="K1345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1346">
@@ -50018,7 +50018,7 @@
         <v>76</v>
       </c>
       <c r="K1348" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1349">
@@ -50348,7 +50348,7 @@
         <v>76</v>
       </c>
       <c r="K1358" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1359">
@@ -50513,7 +50513,7 @@
         <v>77</v>
       </c>
       <c r="K1363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1364">
@@ -50942,7 +50942,7 @@
         <v>77</v>
       </c>
       <c r="K1376" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1377">
@@ -51107,7 +51107,7 @@
         <v>76</v>
       </c>
       <c r="K1381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1382">
@@ -51635,7 +51635,7 @@
         <v>77</v>
       </c>
       <c r="K1397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1398">
@@ -52097,7 +52097,7 @@
         <v>76</v>
       </c>
       <c r="K1411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1412">
@@ -52196,7 +52196,7 @@
         <v>77</v>
       </c>
       <c r="K1414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1415">
@@ -52592,7 +52592,7 @@
         <v>76</v>
       </c>
       <c r="K1426" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1427">
@@ -53186,7 +53186,7 @@
         <v>76</v>
       </c>
       <c r="K1444" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1445">
@@ -53252,7 +53252,7 @@
         <v>77</v>
       </c>
       <c r="K1446" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1447">
